--- a/Cost_School_Day.xlsx
+++ b/Cost_School_Day.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/Common_Health/Measles_USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{C9C0F0C5-655F-4677-BC63-501A8D184A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE68021C-2A02-4998-B792-5D0339B02655}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{C9C0F0C5-655F-4677-BC63-501A8D184A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3549FD9E-0166-4798-9B74-933AA75D08D4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{863F6A07-B228-4E1C-B7C0-6FCA2B158C3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{863F6A07-B228-4E1C-B7C0-6FCA2B158C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9055FF38-AAEA-4123-A924-593A69828A00}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,9 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB647B5-9477-4EE0-B708-319DDC3E3408}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="E9:F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
